--- a/1-data-visualization/data_dictionary.xlsx
+++ b/1-data-visualization/data_dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthasellinger/Desktop/graphs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samanthasellinger/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFAE79D-CEC4-4541-9788-458D1243A553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666265BF-A240-C74A-9122-8D0A10911398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15920" xr2:uid="{F87B5615-E5A7-484A-A34E-CA133CE18706}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>yes (429 NA)</t>
   </si>
   <si>
-    <t>Fivethirtyeight's pollster rating determined by their predictive plus-minus metric.</t>
-  </si>
-  <si>
     <t>This variable shows us how fivethirtyeight rates each pollster, giving us another variable to work with when looking at all poll results and their quality.</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>This variable is crucial in helping us understand the dataset because it describes the sample size of each row/poll.</t>
+  </si>
+  <si>
+    <t>Fivethirtyeight's pollster rating determined by their predictive plus-minus metric (FiveThirtyEight, 2023).</t>
   </si>
 </sst>
 </file>
@@ -429,31 +429,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCFFF1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -622,6 +597,61 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCFFF1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -656,36 +686,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -708,14 +708,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{981B512D-1276-B343-A201-75365CED49A2}" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{981B512D-1276-B343-A201-75365CED49A2}" name="Table3" displayName="Table3" ref="A1:E16" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E16" xr:uid="{981B512D-1276-B343-A201-75365CED49A2}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5EBC988D-B1A1-0141-81AB-1B398E8E3297}" name="Column Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{58B63A1B-55C5-404E-B151-1932612ED1D9}" name="Data Type" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{ADCEFF14-5EBE-2545-B77A-F1EF1747DD8E}" name="Has Nulls (y/n)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{AEDC4253-7F11-0146-B823-0B5FD014F822}" name="Description" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{078CCD43-F6AE-2544-9A7A-D1294343A7BE}" name="Justification" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{5EBC988D-B1A1-0141-81AB-1B398E8E3297}" name="Column Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{58B63A1B-55C5-404E-B151-1932612ED1D9}" name="Data Type" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{ADCEFF14-5EBE-2545-B77A-F1EF1747DD8E}" name="Has Nulls (y/n)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{AEDC4253-7F11-0146-B823-0B5FD014F822}" name="Description" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{078CCD43-F6AE-2544-9A7A-D1294343A7BE}" name="Justification" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1040,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD646E4-D129-1048-9F42-65C68A8155A2}">
   <dimension ref="A1:Y1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1142,7 +1142,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1179,7 +1179,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1216,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1253,7 +1253,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1290,7 +1290,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1313,7 +1313,7 @@
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
@@ -1324,10 +1324,10 @@
         <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1352,19 +1352,19 @@
     </row>
     <row r="9" spans="1:25" ht="29" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1389,19 +1389,19 @@
     </row>
     <row r="10" spans="1:25" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1426,19 +1426,19 @@
     </row>
     <row r="11" spans="1:25" ht="57" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1463,19 +1463,19 @@
     </row>
     <row r="12" spans="1:25" ht="57" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1500,19 +1500,19 @@
     </row>
     <row r="13" spans="1:25" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1537,19 +1537,19 @@
     </row>
     <row r="14" spans="1:25" ht="29" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1574,19 +1574,19 @@
     </row>
     <row r="15" spans="1:25" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1611,19 +1611,19 @@
     </row>
     <row r="16" spans="1:25" ht="57" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="E16" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
